--- a/modified_tables/table_19.xlsx
+++ b/modified_tables/table_19.xlsx
@@ -14,33 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Flexible working hours</t>
-  </si>
-  <si>
-    <t>Full-time</t>
-  </si>
-  <si>
-    <t>Of which: female</t>
-  </si>
-  <si>
-    <t>Of which: male</t>
-  </si>
-  <si>
-    <t>Part-time</t>
-  </si>
-  <si>
-    <t>Virtual offices</t>
-  </si>
-  <si>
-    <t>Sabbatical</t>
-  </si>
-  <si>
-    <t>Semi-retirement (Altersteilzeit)</t>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>12,318.6</t>
+  </si>
+  <si>
+    <t>14,321.0</t>
+  </si>
+  <si>
+    <t>15,646.0</t>
+  </si>
+  <si>
+    <t>By gender and level</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>4,832.4</t>
+  </si>
+  <si>
+    <t>5,400.5</t>
+  </si>
+  <si>
+    <t>6,740.5</t>
+  </si>
+  <si>
+    <t>Of which: managers</t>
+  </si>
+  <si>
+    <t>479.0</t>
+  </si>
+  <si>
+    <t>563.5</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>7,486.2</t>
+  </si>
+  <si>
+    <t>8,920.5</t>
+  </si>
+  <si>
+    <t>8,905.5</t>
+  </si>
+  <si>
+    <t>2,120.0</t>
+  </si>
+  <si>
+    <t>2,044.0</t>
+  </si>
+  <si>
+    <t>Per employee</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Professional development costs per employee (€)</t>
+  </si>
+  <si>
+    <t>1,222.0</t>
+  </si>
+  <si>
+    <t>1,274</t>
   </si>
 </sst>
 </file>
@@ -398,138 +476,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>58.4</v>
-      </c>
-      <c r="E2">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F2">
-        <v>21.1</v>
-      </c>
-      <c r="G2">
-        <v>41.6</v>
-      </c>
-      <c r="H2">
-        <v>6.1</v>
-      </c>
-      <c r="I2">
-        <v>13.2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>59.9</v>
-      </c>
-      <c r="E3">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F3">
-        <v>20.1</v>
-      </c>
-      <c r="G3">
-        <v>40.1</v>
-      </c>
-      <c r="H3">
-        <v>5.4</v>
-      </c>
-      <c r="I3">
-        <v>12.8</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>80.8</v>
-      </c>
-      <c r="F4">
-        <v>19.2</v>
-      </c>
-      <c r="I4">
-        <v>12.9</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1.8</v>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
